--- a/table/List for python.xlsx
+++ b/table/List for python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asuku\Documents\programing\learning\leetcode\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5352EFEB-5404-4733-8063-A47078896293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E55C86-A712-4959-80D8-681E84363F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{961A8F7A-94F7-4105-8E9D-2C0328488E76}"/>
   </bookViews>
@@ -394,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +423,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Canbri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -525,9 +530,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -543,6 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,11 +865,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442E65C8-FFE3-440E-8A47-15E0EC99E372}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -873,35 +878,35 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="38.25" thickBot="1">
+      <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -915,11 +920,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -929,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -943,7 +948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -957,7 +962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -971,7 +976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -985,7 +990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -999,7 +1004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="45">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -1027,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="60">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -1041,7 +1046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="60">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="75">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -1083,7 +1088,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="60">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -1093,11 +1098,11 @@
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="60">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
@@ -1111,7 +1116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="60">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="45">
       <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
@@ -1139,7 +1144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="60">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="60">
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="90">
       <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
@@ -1181,7 +1186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="105">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -1195,7 +1200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="105">
       <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
@@ -1209,7 +1214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="60">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -1223,7 +1228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="60">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
